--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView windowWidth="17235" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="154">
   <si>
     <t>代号</t>
   </si>
@@ -247,12 +247,6 @@
   </si>
   <si>
     <t>Assets/Effects/Prefabs/Cudgel/Fx_Nan_Cudgel_Skill3.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations/灵蛇拳法欧阳克待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations/灵蛇拳法欧阳克.anim</t>
   </si>
   <si>
     <t>Assets/Effects/Prefabs/Lute/Fx_Nan_Lute_Skill2.prefab</t>
@@ -673,9 +667,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,17 +681,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,9 +704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,9 +725,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,24 +749,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,25 +772,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,8 +788,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,13 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,19 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,25 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +891,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,13 +927,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,49 +993,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,25 +1017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,21 +1066,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1101,17 +1080,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,11 +1113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,8 +1131,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,11 +1148,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,157 +1167,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2595,11 +2589,11 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2892,11 +2886,11 @@
       <c r="E6" s="4">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
+      <c r="F6" s="4">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -2908,19 +2902,19 @@
         <v>0.7</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O6">
         <v>0.6</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R6">
         <v>0.4</v>
@@ -2956,19 +2950,19 @@
         <v>1.1</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O7">
         <v>0.9</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R7">
         <v>0.6</v>
@@ -3016,7 +3010,7 @@
         <v>0.9</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R8">
         <v>0.6</v>
@@ -3064,7 +3058,7 @@
         <v>2.1</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R9">
         <v>1.6</v>
@@ -3106,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10">
         <v>0.9</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R10">
         <v>0.6</v>
@@ -3148,7 +3142,7 @@
         <v>1.1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3160,7 +3154,7 @@
         <v>0.9</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R11">
         <v>0.6</v>
@@ -3208,7 +3202,7 @@
         <v>0.9</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R12">
         <v>0.6</v>
@@ -3244,7 +3238,7 @@
         <v>0.7</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3256,7 +3250,7 @@
         <v>0.6</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R13">
         <v>0.4</v>
@@ -3292,19 +3286,19 @@
         <v>0.7</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O14">
         <v>0.6</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R14">
         <v>0.4</v>
@@ -3322,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -3337,19 +3331,19 @@
         <v>0.7</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O15">
         <v>0.6</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R15">
         <v>0.4</v>
@@ -3397,7 +3391,7 @@
         <v>0.9</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R16">
         <v>0.6</v>
@@ -3418,10 +3412,10 @@
         <v>19</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -3439,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O17">
         <v>0.9</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R17">
         <v>0.6</v>
@@ -3481,19 +3475,19 @@
         <v>0.7</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O18">
         <v>0.6</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R18">
         <v>0.4</v>
@@ -3529,19 +3523,19 @@
         <v>0.7</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O19">
         <v>0.6</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R19">
         <v>0.4</v>
@@ -3577,7 +3571,7 @@
         <v>1.1</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3589,7 +3583,7 @@
         <v>0.9</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R20">
         <v>0.6</v>
@@ -3625,19 +3619,19 @@
         <v>0.7</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O21">
         <v>0.6</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R21">
         <v>0.4</v>
@@ -3673,7 +3667,7 @@
         <v>1.1</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3685,7 +3679,7 @@
         <v>0.9</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R22">
         <v>0.6</v>
@@ -3721,7 +3715,7 @@
         <v>1.1</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3733,7 +3727,7 @@
         <v>0.9</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R23">
         <v>0.6</v>
@@ -3754,10 +3748,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -3769,19 +3763,19 @@
         <v>1.1</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O24">
         <v>0.9</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R24">
         <v>0.6</v>
@@ -3802,10 +3796,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -3817,7 +3811,7 @@
         <v>1.1</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3829,7 +3823,7 @@
         <v>0.9</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R25">
         <v>0.6</v>
@@ -3865,19 +3859,19 @@
         <v>0.7</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O26">
         <v>0.6</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R26">
         <v>0.4</v>
@@ -3898,10 +3892,10 @@
         <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -3913,19 +3907,19 @@
         <v>1.5</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O27">
         <v>0.23</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R27">
         <v>0.8</v>
@@ -3961,7 +3955,7 @@
         <v>1.4</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3973,7 +3967,7 @@
         <v>1.2</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R28">
         <f>ROUNDUP(I28*0.4,1)</f>
@@ -3995,10 +3989,10 @@
         <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -4010,19 +4004,19 @@
         <v>1.1</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O29">
         <v>0.9</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R29">
         <f t="shared" ref="R29:R92" si="0">ROUNDUP(I29*0.4,1)</f>
@@ -4059,7 +4053,7 @@
         <v>0.7</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4071,7 +4065,7 @@
         <v>0.6</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
@@ -4108,7 +4102,7 @@
         <v>0.7</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -4120,7 +4114,7 @@
         <v>0.6</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
@@ -4157,7 +4151,7 @@
         <v>1.1</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4169,7 +4163,7 @@
         <v>0.9</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
@@ -4206,7 +4200,7 @@
         <v>0.7</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4218,7 +4212,7 @@
         <v>0.6</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
@@ -4255,7 +4249,7 @@
         <v>0.7</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4267,7 +4261,7 @@
         <v>0.6</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
@@ -4304,19 +4298,19 @@
         <v>0.7</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O35">
         <v>0.6</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
@@ -4353,7 +4347,7 @@
         <v>0.7</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4365,7 +4359,7 @@
         <v>0.6</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R36">
         <f t="shared" si="0"/>
@@ -4402,7 +4396,7 @@
         <v>1.1</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4414,7 +4408,7 @@
         <v>0.9</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R37">
         <f t="shared" si="0"/>
@@ -4451,7 +4445,7 @@
         <v>1.4</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4463,7 +4457,7 @@
         <v>1.2</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R38">
         <f t="shared" si="0"/>
@@ -4500,7 +4494,7 @@
         <v>1.1</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4512,7 +4506,7 @@
         <v>0.9</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R39">
         <f t="shared" si="0"/>
@@ -4549,7 +4543,7 @@
         <v>0.7</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4561,7 +4555,7 @@
         <v>0.6</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R40">
         <f t="shared" si="0"/>
@@ -4598,7 +4592,7 @@
         <v>1.1</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4610,7 +4604,7 @@
         <v>0.9</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R41">
         <f t="shared" si="0"/>
@@ -4647,7 +4641,7 @@
         <v>1.8</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4659,7 +4653,7 @@
         <v>1.5</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
@@ -4696,7 +4690,7 @@
         <v>1.1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4708,7 +4702,7 @@
         <v>0.9</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R43">
         <f t="shared" si="0"/>
@@ -4745,7 +4739,7 @@
         <v>1.1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4757,7 +4751,7 @@
         <v>0.9</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R44">
         <f t="shared" si="0"/>
@@ -4794,7 +4788,7 @@
         <v>1.4</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4806,7 +4800,7 @@
         <v>1.2</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R45">
         <f t="shared" si="0"/>
@@ -4843,19 +4837,19 @@
         <v>0.7</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O46">
         <v>0.6</v>
       </c>
       <c r="Q46" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R46">
         <f t="shared" si="0"/>
@@ -4877,10 +4871,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -4892,7 +4886,7 @@
         <v>0.7</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4904,7 +4898,7 @@
         <v>0.6</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R47">
         <f t="shared" si="0"/>
@@ -4941,7 +4935,7 @@
         <v>1.8</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4953,7 +4947,7 @@
         <v>1.5</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R48">
         <f t="shared" si="0"/>
@@ -4990,7 +4984,7 @@
         <v>0.7</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5002,7 +4996,7 @@
         <v>0.6</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R49">
         <f t="shared" si="0"/>
@@ -5039,7 +5033,7 @@
         <v>1.8</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5051,7 +5045,7 @@
         <v>1.5</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R50">
         <f t="shared" si="0"/>
@@ -5088,7 +5082,7 @@
         <v>1.8</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5100,7 +5094,7 @@
         <v>1.5</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R51">
         <f t="shared" si="0"/>
@@ -5137,7 +5131,7 @@
         <v>1.1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5149,7 +5143,7 @@
         <v>0.9</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R52">
         <f t="shared" si="0"/>
@@ -5186,7 +5180,7 @@
         <v>1.1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5198,7 +5192,7 @@
         <v>0.9</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R53">
         <f t="shared" si="0"/>
@@ -5217,13 +5211,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -5235,7 +5229,7 @@
         <v>1.1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5247,7 +5241,7 @@
         <v>0.9</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R54">
         <f t="shared" si="0"/>
@@ -5284,7 +5278,7 @@
         <v>0.7</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5296,7 +5290,7 @@
         <v>0.6</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R55">
         <f t="shared" si="0"/>
@@ -5333,7 +5327,7 @@
         <v>1.1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5345,7 +5339,7 @@
         <v>0.9</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R56">
         <f t="shared" si="0"/>
@@ -5382,7 +5376,7 @@
         <v>1.1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5394,7 +5388,7 @@
         <v>0.9</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R57">
         <f t="shared" si="0"/>
@@ -5416,10 +5410,10 @@
         <v>13</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -5431,7 +5425,7 @@
         <v>1.1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5443,7 +5437,7 @@
         <v>0.9</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R58">
         <f t="shared" si="0"/>
@@ -5480,19 +5474,19 @@
         <v>1.1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O59">
         <v>0.9</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R59">
         <f t="shared" si="0"/>
@@ -5529,7 +5523,7 @@
         <v>1.8</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5541,7 +5535,7 @@
         <v>1.5</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R60">
         <f t="shared" si="0"/>
@@ -5584,13 +5578,13 @@
         <v>0</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O61">
         <v>0.6</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R61">
         <f t="shared" si="0"/>
@@ -5627,7 +5621,7 @@
         <v>1.8</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5639,7 +5633,7 @@
         <v>1.5</v>
       </c>
       <c r="Q62" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R62">
         <f t="shared" si="0"/>
@@ -5659,13 +5653,13 @@
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -5684,14 +5678,14 @@
       </c>
       <c r="M63" s="17"/>
       <c r="N63" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O63">
         <v>1.5</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R63">
         <f t="shared" si="0"/>
@@ -5729,7 +5723,7 @@
         <v>1.8</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5741,7 +5735,7 @@
         <v>1.5</v>
       </c>
       <c r="Q64" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R64">
         <f t="shared" si="0"/>
@@ -5760,13 +5754,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -5778,7 +5772,7 @@
         <v>0.7</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5790,7 +5784,7 @@
         <v>0.6</v>
       </c>
       <c r="Q65" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R65">
         <f t="shared" si="0"/>
@@ -5810,13 +5804,13 @@
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -5828,7 +5822,7 @@
         <v>1.8</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5842,7 +5836,7 @@
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R66">
         <f t="shared" si="0"/>
@@ -5880,7 +5874,7 @@
         <v>1.8</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5892,7 +5886,7 @@
         <v>1.5</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R67">
         <f t="shared" si="0"/>
@@ -5935,13 +5929,13 @@
         <v>0</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O68">
         <v>0.9</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R68">
         <f t="shared" si="0"/>
@@ -5960,13 +5954,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="H69" s="5">
         <v>0</v>
@@ -5978,7 +5972,7 @@
         <v>1.4</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5990,7 +5984,7 @@
         <v>1.2</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R69">
         <f t="shared" si="0"/>
@@ -6027,19 +6021,19 @@
         <v>1.1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O70">
         <v>0.9</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R70">
         <f t="shared" si="0"/>
@@ -6076,7 +6070,7 @@
         <v>1.1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6088,7 +6082,7 @@
         <v>0.9</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R71">
         <f t="shared" si="0"/>
@@ -6137,7 +6131,7 @@
         <v>0.9</v>
       </c>
       <c r="Q72" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R72">
         <f t="shared" si="0"/>
@@ -6177,13 +6171,13 @@
         <v>0</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O73">
         <v>1.2</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R73">
         <f t="shared" si="0"/>
@@ -6226,13 +6220,13 @@
         <v>0</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O74">
         <v>0.6</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R74">
         <f t="shared" si="0"/>
@@ -6281,7 +6275,7 @@
         <v>1.5</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R75">
         <f t="shared" si="0"/>
@@ -6315,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O76">
         <v>1.2</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R76">
         <f t="shared" si="0"/>
@@ -6358,14 +6352,14 @@
         <v>0.5</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R77">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:19">
@@ -6398,14 +6392,14 @@
         <v>0.9</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R78">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" ht="54" spans="1:18">
@@ -6447,7 +6441,7 @@
         <v>1.2</v>
       </c>
       <c r="Q79" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R79">
         <f t="shared" si="0"/>
@@ -6496,7 +6490,7 @@
         <v>1.2</v>
       </c>
       <c r="Q80" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R80">
         <f t="shared" si="0"/>
@@ -6542,7 +6536,7 @@
         <v>0.6</v>
       </c>
       <c r="Q81" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R81">
         <f t="shared" si="0"/>
@@ -6579,7 +6573,7 @@
         <v>1.1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -6591,7 +6585,7 @@
         <v>0.9</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R82">
         <f t="shared" si="0"/>
@@ -6628,7 +6622,7 @@
         <v>0.7</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6640,7 +6634,7 @@
         <v>0.6</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R83">
         <f t="shared" si="0"/>
@@ -6668,7 +6662,7 @@
         <v>1.4</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -6680,7 +6674,7 @@
         <v>1.2</v>
       </c>
       <c r="Q84" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R84">
         <f t="shared" si="0"/>
@@ -6714,7 +6708,7 @@
         <v>1.4</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -6726,7 +6720,7 @@
         <v>1.2</v>
       </c>
       <c r="Q85" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R85">
         <f t="shared" si="0"/>
@@ -6757,20 +6751,20 @@
         <v>0</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O86">
         <v>0.9</v>
       </c>
       <c r="Q86" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R86">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" ht="54" spans="1:18">
@@ -6788,10 +6782,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H87" s="5">
         <v>0</v>
@@ -6803,7 +6797,7 @@
         <v>1.1</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -6815,7 +6809,7 @@
         <v>0.9</v>
       </c>
       <c r="Q87" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R87">
         <f t="shared" si="0"/>
@@ -6864,7 +6858,7 @@
         <v>1.2</v>
       </c>
       <c r="Q88" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R88">
         <f t="shared" si="0"/>
@@ -6886,10 +6880,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H89" s="5">
         <v>0</v>
@@ -6901,7 +6895,7 @@
         <v>1.1</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -6913,7 +6907,7 @@
         <v>0.9</v>
       </c>
       <c r="Q89" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R89">
         <f t="shared" si="0"/>
@@ -6950,19 +6944,19 @@
         <v>1.1</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O90">
         <v>0.9</v>
       </c>
       <c r="Q90" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R90">
         <f t="shared" si="0"/>
@@ -6981,13 +6975,13 @@
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="H91" s="5">
         <v>0</v>
@@ -6999,7 +6993,7 @@
         <v>0.7</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -7011,7 +7005,7 @@
         <v>0.6</v>
       </c>
       <c r="Q91" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R91">
         <f t="shared" si="0"/>
@@ -7033,10 +7027,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H92" s="5">
         <v>0</v>
@@ -7048,7 +7042,7 @@
         <v>0.7</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -7103,13 +7097,13 @@
         <v>0</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O93">
         <v>1.5</v>
       </c>
       <c r="Q93" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R93">
         <f t="shared" ref="R93:R98" si="1">ROUNDUP(I93*0.4,1)</f>
@@ -7128,13 +7122,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="H94" s="5">
         <v>0</v>
@@ -7152,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O94">
         <v>0.9</v>
       </c>
       <c r="Q94" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R94">
         <f t="shared" si="1"/>
@@ -7170,7 +7164,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -7197,13 +7191,13 @@
         <v>0</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O95">
         <v>0.25</v>
       </c>
       <c r="Q95" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R95">
         <f t="shared" si="1"/>
@@ -7215,7 +7209,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -7248,7 +7242,7 @@
         <v>0.25</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R96">
         <f t="shared" si="1"/>
@@ -7260,7 +7254,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -7272,7 +7266,7 @@
         <v>13</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H97" s="5">
         <v>0</v>
@@ -7293,7 +7287,7 @@
         <v>0.25</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R97">
         <f t="shared" si="1"/>
@@ -7333,20 +7327,20 @@
         <v>0</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O98">
         <v>0.9</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R98">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="S98" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
